--- a/xlsx/_wiki_武成公主_intext.xlsx
+++ b/xlsx/_wiki_武成公主_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="37">
   <si>
     <t>武成公主</t>
   </si>
@@ -126,12 +126,6 @@
   </si>
   <si>
     <t>阅读</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Project:%E4%B8%8A%E4%BC%A0</t>
-  </si>
-  <si>
-    <t>上传图像或多媒体文件[u]</t>
   </si>
 </sst>
 </file>
@@ -480,7 +474,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -945,29 +939,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
-        <v>0</v>
-      </c>
-      <c r="C21" t="s">
-        <v>1</v>
-      </c>
-      <c r="D21" t="n">
-        <v>20</v>
-      </c>
-      <c r="E21" t="s">
-        <v>37</v>
-      </c>
-      <c r="F21" t="s">
-        <v>38</v>
-      </c>
-      <c r="G21" t="n">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/xlsx/_wiki_武成公主_intext.xlsx
+++ b/xlsx/_wiki_武成公主_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="34">
   <si>
     <t>武成公主</t>
   </si>
@@ -23,109 +23,100 @@
     <t>https://zh.wikipedia.org/zh-cn/%E6%AD%A6%E6%88%90%E5%85%AC%E4%B8%BB</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%99%88%E6%9C%9D</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E9%99%88%E6%9C%9D</t>
   </si>
   <si>
     <t>陈朝</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A7%93%E6%B0%8F</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%A7%93%E6%B0%8F</t>
   </si>
   <si>
     <t>姓氏</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%88%B5%E4%BD%8D</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E7%88%B5%E4%BD%8D</t>
   </si>
   <si>
     <t>爵位</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E4%B8%BB</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%85%AC%E4%B8%BB</t>
   </si>
   <si>
     <t>公主</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B0%81%E5%8F%B7</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%B0%81%E5%8F%B7</t>
   </si>
   <si>
     <t>封号</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%99%88%E5%AE%A3%E5%B8%9D</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E9%99%88%E5%AE%A3%E5%B8%9D</t>
   </si>
   <si>
     <t>陈宣帝</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%99%88%E9%A1%BC</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E9%99%88%E9%A1%BC</t>
   </si>
   <si>
     <t>陈顼</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E4%B8%AD%E5%9B%BD</t>
   </si>
   <si>
     <t>中国</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%9C%9D%E9%99%88</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%8D%97%E6%9C%9D%E9%99%88</t>
   </si>
   <si>
     <t>南朝陈</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%90%B3%E8%88%88%E9%83%A1</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%90%B3%E8%88%88%E9%83%A1</t>
   </si>
   <si>
     <t>吴兴郡</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A6%83</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%A6%83</t>
   </si>
   <si>
     <t>妃</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%99%88%E5%90%8E%E4%B8%BB</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E9%99%88%E5%90%8E%E4%B8%BB</t>
   </si>
   <si>
     <t>陈后主</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E5%A6%83</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%A4%AA%E5%A6%83</t>
   </si>
   <si>
     <t>太妃</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%99%B3%E5%8F%94%E9%87%8D</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E9%99%B3%E5%8F%94%E9%87%8D</t>
   </si>
   <si>
     <t>陈叔重</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%99%88%E5%8F%94%E8%B0%9F</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E9%99%88%E5%8F%94%E8%B0%9F</t>
   </si>
   <si>
     <t>陈叔谟</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%98%89%E6%B3%B0%E5%90%B3%E8%88%88%E5%BF%97</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%98%89%E6%B3%B0%E5%90%B3%E8%88%88%E5%BF%97</t>
   </si>
   <si>
     <t>嘉泰吴兴志</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AD%A6%E6%88%90%E5%85%AC%E4%B8%BB</t>
-  </si>
-  <si>
-    <t>浏览条目正文[c]</t>
-  </si>
-  <si>
-    <t>阅读</t>
   </si>
 </sst>
 </file>
@@ -474,7 +465,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -893,52 +884,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C19" t="s">
-        <v>1</v>
-      </c>
-      <c r="D19" t="n">
-        <v>18</v>
-      </c>
-      <c r="E19" t="s">
-        <v>34</v>
-      </c>
-      <c r="F19" t="s">
-        <v>35</v>
-      </c>
-      <c r="G19" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" t="s">
-        <v>1</v>
-      </c>
-      <c r="D20" t="n">
-        <v>19</v>
-      </c>
-      <c r="E20" t="s">
-        <v>34</v>
-      </c>
-      <c r="F20" t="s">
-        <v>36</v>
-      </c>
-      <c r="G20" t="n">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
